--- a/Cosmicode Data/Test-Case-Template.xlsx
+++ b/Cosmicode Data/Test-Case-Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,9 +13,14 @@
     <sheet name="TEST CASE TEMPLATE" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="TEST_SUMMARY_REPORT" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Tracker." sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Every Day Report" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Tracker.'!$A$2:$G$84</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Tracker.'!$A$2:$G$84</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Tracker.'!$A$2:$G$84</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Tracker.'!$A$2:$G$84</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Tracker.'!$A$2:$G$84</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="116">
   <si>
     <t xml:space="preserve">General Information</t>
   </si>
@@ -116,6 +121,9 @@
     <t xml:space="preserve">Critical defects percentage</t>
   </si>
   <si>
+    <t xml:space="preserve">Total number of Features</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCREEN NAME</t>
   </si>
   <si>
@@ -300,6 +308,78 @@
   </si>
   <si>
     <t xml:space="preserve">NO(SOCIAL MEDIA RELATED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Raj and Team,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greetings from Kaanchan rajagopalan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trust you are fine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: For issue number’s check the excel sheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number of issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed Issues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-Open Issues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Ongoing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending/Rejected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chrome, Firefox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet 1à Filter the followingà Status from Developer to “YES” àStatus from Tester to “PENDING, TESTED, RE-OPEN” . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet 2à Filter the followingà Pushed to Staging to “YES” &amp; “OPEN AND CLOSE”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updates:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let me know if you have any queries and I can act on it quickly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOUR THOUGHTS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Testing Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91-8106282877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
   </si>
 </sst>
 </file>
@@ -311,7 +391,7 @@
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
     <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -416,13 +496,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF251C22"/>
-      <name val="Franklin Gothic Medium"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
@@ -436,6 +509,7 @@
       <color rgb="FF404040"/>
       <name val="Bookman Old Style"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -458,6 +532,13 @@
       <color rgb="FF404040"/>
       <name val="Bookman Old Style"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF251C22"/>
+      <name val="Franklin Gothic Medium"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -499,6 +580,15 @@
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="Bookman Old Style"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -706,11 +796,11 @@
     <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -719,7 +809,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -727,15 +817,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -751,7 +841,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -791,11 +881,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -811,7 +901,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -853,6 +943,22 @@
     </xf>
     <xf numFmtId="164" fontId="25" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -879,7 +985,7 @@
     <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
     <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
     <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="TableStyleLight1" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="56">
     <dxf>
@@ -1686,7 +1792,7 @@
   <dimension ref="B1:M18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1943,8 +2049,8 @@
   </sheetPr>
   <dimension ref="B1:C65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2056,15 +2162,125 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="11" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="11" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="11" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="11" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2107,7 +2323,7 @@
     <row r="1" customFormat="false" ht="3.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="13" t="s">
@@ -2118,7 +2334,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -2126,11 +2342,11 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -2143,11 +2359,11 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -2160,7 +2376,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="15" t="s">
@@ -2190,11 +2406,11 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="16"/>
@@ -2220,37 +2436,37 @@
     </row>
     <row r="9" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,14 +2772,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="56.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -2577,16 +2793,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="2.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2597,7 +2813,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="22" t="n">
@@ -2607,61 +2823,61 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="17"/>
     </row>
@@ -2686,8 +2902,8 @@
   </sheetPr>
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2699,13 +2915,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="24" width="16.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="24" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="9" style="0" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="9" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="8.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -2716,28 +2932,28 @@
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2745,16 +2961,16 @@
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
       <c r="D3" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" s="33"/>
     </row>
@@ -2763,16 +2979,16 @@
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" s="33"/>
     </row>
@@ -2781,16 +2997,16 @@
       <c r="B5" s="28"/>
       <c r="C5" s="29"/>
       <c r="D5" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" s="33"/>
     </row>
@@ -2799,16 +3015,16 @@
       <c r="B6" s="28"/>
       <c r="C6" s="29"/>
       <c r="D6" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" s="33"/>
     </row>
@@ -2817,16 +3033,16 @@
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
       <c r="D7" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" s="33"/>
     </row>
@@ -2835,16 +3051,16 @@
       <c r="B8" s="28"/>
       <c r="C8" s="29"/>
       <c r="D8" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="H8" s="33"/>
     </row>
@@ -2853,16 +3069,16 @@
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
       <c r="D9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="H9" s="33"/>
     </row>
@@ -2871,16 +3087,16 @@
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
       <c r="D10" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" s="33"/>
     </row>
@@ -2889,16 +3105,16 @@
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
       <c r="D11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="H11" s="33"/>
     </row>
@@ -2907,16 +3123,16 @@
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
       <c r="D12" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="H12" s="33"/>
     </row>
@@ -2925,16 +3141,16 @@
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
       <c r="D13" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="33"/>
     </row>
@@ -2943,16 +3159,16 @@
       <c r="B14" s="28"/>
       <c r="C14" s="29"/>
       <c r="D14" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="H14" s="33"/>
     </row>
@@ -2961,16 +3177,16 @@
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
       <c r="D15" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="H15" s="33"/>
     </row>
@@ -2979,16 +3195,16 @@
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
       <c r="D16" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="H16" s="33"/>
     </row>
@@ -2997,16 +3213,16 @@
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
       <c r="D17" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="33"/>
     </row>
@@ -3015,16 +3231,16 @@
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
       <c r="D18" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="H18" s="33"/>
     </row>
@@ -3033,16 +3249,16 @@
       <c r="B19" s="28"/>
       <c r="C19" s="29"/>
       <c r="D19" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="H19" s="33"/>
     </row>
@@ -3051,16 +3267,16 @@
       <c r="B20" s="28"/>
       <c r="C20" s="29"/>
       <c r="D20" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="H20" s="33"/>
     </row>
@@ -3069,16 +3285,16 @@
       <c r="B21" s="28"/>
       <c r="C21" s="29"/>
       <c r="D21" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>86</v>
-      </c>
       <c r="G21" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" s="33"/>
     </row>
@@ -3087,16 +3303,16 @@
       <c r="B22" s="28"/>
       <c r="C22" s="29"/>
       <c r="D22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>86</v>
-      </c>
       <c r="G22" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" s="33"/>
     </row>
@@ -3105,16 +3321,16 @@
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
       <c r="D23" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>86</v>
-      </c>
       <c r="G23" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" s="33"/>
     </row>
@@ -3123,16 +3339,16 @@
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
       <c r="D24" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" s="33"/>
     </row>
@@ -3141,16 +3357,16 @@
       <c r="B25" s="28"/>
       <c r="C25" s="29"/>
       <c r="D25" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" s="33"/>
     </row>
@@ -3159,16 +3375,16 @@
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
       <c r="D26" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="33"/>
     </row>
@@ -3177,16 +3393,16 @@
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
       <c r="D27" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" s="33"/>
     </row>
@@ -3195,16 +3411,16 @@
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
       <c r="D28" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" s="33"/>
     </row>
@@ -3213,16 +3429,16 @@
       <c r="B29" s="28"/>
       <c r="C29" s="29"/>
       <c r="D29" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" s="33"/>
     </row>
@@ -3231,16 +3447,16 @@
       <c r="B30" s="28"/>
       <c r="C30" s="29"/>
       <c r="D30" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>86</v>
-      </c>
       <c r="G30" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" s="33"/>
     </row>
@@ -3249,16 +3465,16 @@
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
       <c r="D31" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" s="33"/>
     </row>
@@ -3267,16 +3483,16 @@
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
       <c r="D32" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>86</v>
-      </c>
       <c r="G32" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" s="33"/>
     </row>
@@ -3285,16 +3501,16 @@
       <c r="B33" s="28"/>
       <c r="C33" s="29"/>
       <c r="D33" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" s="33"/>
     </row>
@@ -3303,16 +3519,16 @@
       <c r="B34" s="28"/>
       <c r="C34" s="29"/>
       <c r="D34" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>86</v>
-      </c>
       <c r="G34" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" s="33"/>
     </row>
@@ -3321,16 +3537,16 @@
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
       <c r="D35" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>86</v>
-      </c>
       <c r="G35" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" s="33"/>
     </row>
@@ -3339,16 +3555,16 @@
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
       <c r="D36" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" s="33"/>
     </row>
@@ -3357,16 +3573,16 @@
       <c r="B37" s="28"/>
       <c r="C37" s="29"/>
       <c r="D37" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" s="33"/>
     </row>
@@ -3375,16 +3591,16 @@
       <c r="B38" s="28"/>
       <c r="C38" s="29"/>
       <c r="D38" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" s="33"/>
     </row>
@@ -3393,16 +3609,16 @@
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
       <c r="D39" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" s="33"/>
     </row>
@@ -3411,16 +3627,16 @@
       <c r="B40" s="28"/>
       <c r="C40" s="29"/>
       <c r="D40" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" s="33"/>
     </row>
@@ -3429,16 +3645,16 @@
       <c r="B41" s="28"/>
       <c r="C41" s="29"/>
       <c r="D41" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H41" s="33"/>
     </row>
@@ -3447,16 +3663,16 @@
       <c r="B42" s="28"/>
       <c r="C42" s="29"/>
       <c r="D42" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" s="33"/>
     </row>
@@ -3465,16 +3681,16 @@
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
       <c r="D43" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H43" s="33"/>
     </row>
@@ -3483,16 +3699,16 @@
       <c r="B44" s="28"/>
       <c r="C44" s="29"/>
       <c r="D44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>86</v>
-      </c>
       <c r="G44" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" s="33"/>
     </row>
@@ -3501,16 +3717,16 @@
       <c r="B45" s="28"/>
       <c r="C45" s="29"/>
       <c r="D45" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" s="33"/>
     </row>
@@ -3519,16 +3735,16 @@
       <c r="B46" s="28"/>
       <c r="C46" s="29"/>
       <c r="D46" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H46" s="33"/>
     </row>
@@ -3537,16 +3753,16 @@
       <c r="B47" s="28"/>
       <c r="C47" s="29"/>
       <c r="D47" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H47" s="33"/>
     </row>
@@ -3555,16 +3771,16 @@
       <c r="B48" s="28"/>
       <c r="C48" s="29"/>
       <c r="D48" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H48" s="33"/>
     </row>
@@ -3573,16 +3789,16 @@
       <c r="B49" s="28"/>
       <c r="C49" s="29"/>
       <c r="D49" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H49" s="33"/>
     </row>
@@ -3591,16 +3807,16 @@
       <c r="B50" s="28"/>
       <c r="C50" s="29"/>
       <c r="D50" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>86</v>
-      </c>
       <c r="G50" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H50" s="33"/>
     </row>
@@ -3609,16 +3825,16 @@
       <c r="B51" s="28"/>
       <c r="C51" s="29"/>
       <c r="D51" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H51" s="33"/>
     </row>
@@ -3627,16 +3843,16 @@
       <c r="B52" s="28"/>
       <c r="C52" s="29"/>
       <c r="D52" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H52" s="33"/>
     </row>
@@ -3645,16 +3861,16 @@
       <c r="B53" s="28"/>
       <c r="C53" s="29"/>
       <c r="D53" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H53" s="33"/>
     </row>
@@ -3663,16 +3879,16 @@
       <c r="B54" s="28"/>
       <c r="C54" s="29"/>
       <c r="D54" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H54" s="33"/>
     </row>
@@ -3681,16 +3897,16 @@
       <c r="B55" s="28"/>
       <c r="C55" s="29"/>
       <c r="D55" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H55" s="33"/>
     </row>
@@ -3699,16 +3915,16 @@
       <c r="B56" s="28"/>
       <c r="C56" s="29"/>
       <c r="D56" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H56" s="33"/>
     </row>
@@ -3717,16 +3933,16 @@
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
       <c r="D57" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H57" s="33"/>
     </row>
@@ -3735,16 +3951,16 @@
       <c r="B58" s="28"/>
       <c r="C58" s="29"/>
       <c r="D58" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H58" s="33"/>
     </row>
@@ -3753,16 +3969,16 @@
       <c r="B59" s="28"/>
       <c r="C59" s="29"/>
       <c r="D59" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F59" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H59" s="33"/>
     </row>
@@ -3771,16 +3987,16 @@
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
       <c r="D60" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H60" s="33"/>
     </row>
@@ -3789,16 +4005,16 @@
       <c r="B61" s="28"/>
       <c r="C61" s="29"/>
       <c r="D61" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H61" s="33"/>
     </row>
@@ -3807,16 +4023,16 @@
       <c r="B62" s="28"/>
       <c r="C62" s="29"/>
       <c r="D62" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H62" s="33"/>
     </row>
@@ -3825,16 +4041,16 @@
       <c r="B63" s="28"/>
       <c r="C63" s="29"/>
       <c r="D63" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H63" s="33"/>
     </row>
@@ -3843,16 +4059,16 @@
       <c r="B64" s="28"/>
       <c r="C64" s="29"/>
       <c r="D64" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H64" s="33"/>
     </row>
@@ -3861,16 +4077,16 @@
       <c r="B65" s="28"/>
       <c r="C65" s="29"/>
       <c r="D65" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H65" s="33"/>
     </row>
@@ -3879,16 +4095,16 @@
       <c r="B66" s="28"/>
       <c r="C66" s="29"/>
       <c r="D66" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H66" s="33"/>
     </row>
@@ -3897,16 +4113,16 @@
       <c r="B67" s="28"/>
       <c r="C67" s="29"/>
       <c r="D67" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H67" s="33"/>
     </row>
@@ -3915,16 +4131,16 @@
       <c r="B68" s="28"/>
       <c r="C68" s="29"/>
       <c r="D68" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H68" s="33"/>
     </row>
@@ -3933,16 +4149,16 @@
       <c r="B69" s="28"/>
       <c r="C69" s="29"/>
       <c r="D69" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F69" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H69" s="33"/>
     </row>
@@ -3951,16 +4167,16 @@
       <c r="B70" s="28"/>
       <c r="C70" s="29"/>
       <c r="D70" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G70" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H70" s="33"/>
     </row>
@@ -3969,16 +4185,16 @@
       <c r="B71" s="28"/>
       <c r="C71" s="29"/>
       <c r="D71" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H71" s="33"/>
     </row>
@@ -3987,16 +4203,16 @@
       <c r="B72" s="28"/>
       <c r="C72" s="29"/>
       <c r="D72" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H72" s="33"/>
     </row>
@@ -4005,16 +4221,16 @@
       <c r="B73" s="28"/>
       <c r="C73" s="29"/>
       <c r="D73" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H73" s="33"/>
     </row>
@@ -4023,16 +4239,16 @@
       <c r="B74" s="28"/>
       <c r="C74" s="29"/>
       <c r="D74" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H74" s="33"/>
     </row>
@@ -4041,16 +4257,16 @@
       <c r="B75" s="28"/>
       <c r="C75" s="29"/>
       <c r="D75" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G75" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H75" s="33"/>
     </row>
@@ -4059,16 +4275,16 @@
       <c r="B76" s="28"/>
       <c r="C76" s="29"/>
       <c r="D76" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H76" s="33"/>
     </row>
@@ -4077,16 +4293,16 @@
       <c r="B77" s="28"/>
       <c r="C77" s="29"/>
       <c r="D77" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H77" s="33"/>
     </row>
@@ -4095,16 +4311,16 @@
       <c r="B78" s="28"/>
       <c r="C78" s="29"/>
       <c r="D78" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H78" s="33"/>
     </row>
@@ -4113,16 +4329,16 @@
       <c r="B79" s="28"/>
       <c r="C79" s="29"/>
       <c r="D79" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H79" s="33"/>
     </row>
@@ -4131,16 +4347,16 @@
       <c r="B80" s="28"/>
       <c r="C80" s="29"/>
       <c r="D80" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H80" s="33"/>
     </row>
@@ -4149,16 +4365,16 @@
       <c r="B81" s="28"/>
       <c r="C81" s="29"/>
       <c r="D81" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G81" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H81" s="33"/>
     </row>
@@ -4167,16 +4383,16 @@
       <c r="B82" s="28"/>
       <c r="C82" s="29"/>
       <c r="D82" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F82" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G82" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H82" s="33"/>
     </row>
@@ -4185,16 +4401,16 @@
       <c r="B83" s="28"/>
       <c r="C83" s="29"/>
       <c r="D83" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G83" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H83" s="33"/>
     </row>
@@ -4203,16 +4419,16 @@
       <c r="B84" s="28"/>
       <c r="C84" s="29"/>
       <c r="D84" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G84" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H84" s="33"/>
     </row>
@@ -4223,7 +4439,7 @@
   </mergeCells>
   <conditionalFormatting sqref="D53:D54 C52:C54 C21:D23 D25:D27 D40 D44 C39:C47 C25:C36 F38:F39 E50:E54">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
+      <formula>AND(#ref!=0,#ref!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
@@ -4540,4 +4756,774 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Y31"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+    </row>
+    <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="38" t="n">
+        <v>42</v>
+      </c>
+      <c r="B8" s="38" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" s="38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="38" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="A3:Y3"/>
+    <mergeCell ref="A4:Y4"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A10:Y10"/>
+    <mergeCell ref="A11:Y11"/>
+    <mergeCell ref="A12:Y12"/>
+    <mergeCell ref="A13:Y13"/>
+    <mergeCell ref="A14:Y14"/>
+    <mergeCell ref="A15:Y15"/>
+    <mergeCell ref="A16:Y16"/>
+    <mergeCell ref="A17:Y17"/>
+    <mergeCell ref="A18:Y18"/>
+    <mergeCell ref="A19:Y19"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="A22:Y22"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="A24:Y24"/>
+    <mergeCell ref="A25:Y25"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>